--- a/Roguelike_/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書.xlsx
+++ b/Roguelike_/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\不思議のぐらんどおーだー\仕様関係\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Roguelike\Roguelike_\仕様関係\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" tabRatio="752" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" tabRatio="752" firstSheet="42" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -54,8 +54,17 @@
     <sheet name="ダンジョン詳細" sheetId="22" r:id="rId40"/>
     <sheet name="ダンジョン種類" sheetId="7" r:id="rId41"/>
     <sheet name="ダメージ等各種計算" sheetId="10" r:id="rId42"/>
-    <sheet name="編集許可" sheetId="56" r:id="rId43"/>
-    <sheet name="１月末までのαはここまで" sheetId="52" r:id="rId44"/>
+    <sheet name="プレイアブルキャラクターリソース" sheetId="57" r:id="rId43"/>
+    <sheet name="エネミーリソース" sheetId="58" r:id="rId44"/>
+    <sheet name="エフェクトリソース" sheetId="65" r:id="rId45"/>
+    <sheet name="武器リソース" sheetId="59" r:id="rId46"/>
+    <sheet name="盾リソース" sheetId="60" r:id="rId47"/>
+    <sheet name="アイテムリソース" sheetId="61" r:id="rId48"/>
+    <sheet name="罠リソース" sheetId="62" r:id="rId49"/>
+    <sheet name="ダンジョンタイルリソース" sheetId="63" r:id="rId50"/>
+    <sheet name="セーフティエリアタイルリソース" sheetId="64" r:id="rId51"/>
+    <sheet name="編集許可" sheetId="56" r:id="rId52"/>
+    <sheet name="１月末までのαはここまで" sheetId="52" r:id="rId53"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="444">
   <si>
     <t>ここにイメージ画像(ダンジョン進入時のもの)</t>
     <rPh sb="7" eb="9">
@@ -4339,6 +4348,491 @@
   <si>
     <t>※注　既存の物を消したい、変えたいというものがある場合は一言声をかけてください。また、追加したものはtextでも何でもいいので、まとめておいてください</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョン詳細</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンの大きさ　        単位は(歩数 = 画像の枚数)</t>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムのリソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬</t>
+    <rPh sb="0" eb="1">
+      <t>クスリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復薬</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅林檎</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>リンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイアブルキャラクターリソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機状態</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左前</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向き</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖田 総司</t>
+    <rPh sb="0" eb="2">
+      <t>オキタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左後</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右後</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右前</t>
+    <rPh sb="0" eb="2">
+      <t>ミギマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向き(前 == 正面, 後 == 背面)</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸い</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吐き</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振りかぶり</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振り</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振り切り</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離武器(弓)の使用</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ユミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離武器(ボウガン)の使用</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム(杖)の使用、投擲</t>
+    <rPh sb="5" eb="6">
+      <t>ツエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(攻撃時の’振り’状態を使いまわす)</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食事、薬の使用</t>
+    <rPh sb="0" eb="2">
+      <t>ショクジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クスリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べるものを手に持つ</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口に運ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝具思念体</t>
+    <rPh sb="0" eb="1">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>グ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シネン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壺に物を入れる</t>
+    <rPh sb="0" eb="1">
+      <t>ツボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルの使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝具の使用</t>
+    <rPh sb="0" eb="1">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>グ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構え</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛び掛かり</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り抜け</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態異常時</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩き</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左足を踏み出す</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右足を踏み出す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギアシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放置モーション</t>
+    <rPh sb="0" eb="2">
+      <t>ホウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪文書(仮)の使用</t>
   </si>
 </sst>
 </file>
@@ -5759,7 +6253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -6169,12 +6663,49 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6208,110 +6739,714 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.796875" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>389</v>
-      </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="19" spans="1:14" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+        <v>405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>424</v>
+      </c>
+      <c r="B38" t="s">
+        <v>407</v>
+      </c>
+      <c r="D38" t="s">
+        <v>421</v>
+      </c>
+      <c r="E38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>409</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>409</v>
+      </c>
+      <c r="C62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>438</v>
+      </c>
+      <c r="B72" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>409</v>
+      </c>
+      <c r="C73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>426</v>
+      </c>
+      <c r="B82" t="s">
+        <v>407</v>
+      </c>
+      <c r="C82" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>409</v>
+      </c>
+      <c r="C83" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>428</v>
+      </c>
+      <c r="B93" t="s">
+        <v>429</v>
+      </c>
+      <c r="C93" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B106" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" t="s">
+        <v>407</v>
+      </c>
+      <c r="C113" t="s">
+        <v>435</v>
+      </c>
+      <c r="D113" t="s">
+        <v>436</v>
+      </c>
+      <c r="E113" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>409</v>
+      </c>
+      <c r="C114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B116" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B117" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B119" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B120" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B121" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
+        <v>344</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A19:N19"/>
-  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6388,6 +7523,150 @@
     <hyperlink ref="C4" location="キャラクターセレクト画面!A1" display="詳しくは'キャラクターセレクト'画面へ"/>
     <hyperlink ref="C3" location="図鑑テーブル!A1" display="詳しくは'図鑑テーブル'参照"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="43.796875" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A19:N19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Roguelike_/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書.xlsx
+++ b/Roguelike_/仕様関係/Fate～不思議のぐらんどおーだー～(仮) 仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" tabRatio="752" firstSheet="42" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12492" windowHeight="7680" tabRatio="752" firstSheet="41" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="メニュー" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="447">
   <si>
     <t>ここにイメージ画像(ダンジョン進入時のもの)</t>
     <rPh sb="7" eb="9">
@@ -2549,13 +2549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パートナーキャラクター、　　　　　　　　　セーフティエリアにいるキャラクターとの会話</t>
-    <rPh sb="40" eb="42">
-      <t>カイワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューを開く</t>
     <rPh sb="5" eb="6">
       <t>ヒラ</t>
@@ -4481,16 +4474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>沖田 総司</t>
-    <rPh sb="0" eb="2">
-      <t>オキタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左後</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
@@ -4833,13 +4816,48 @@
   </si>
   <si>
     <t>呪文書(仮)の使用</t>
+  </si>
+  <si>
+    <t>エネミーリソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FGO × 不思議のダンジョン</t>
+    <rPh sb="6" eb="9">
+      <t>フシギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パートナーキャラクター、　　　　　　　　　　　セーフティエリアにいるキャラクターとの会話</t>
+    <rPh sb="42" eb="44">
+      <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沖田 総司(再臨1)</t>
+    <rPh sb="0" eb="2">
+      <t>オキタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイリン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4879,6 +4897,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4905,7 +4931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4944,6 +4970,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5273,192 +5302,192 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5526,40 +5555,40 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" t="s">
         <v>360</v>
       </c>
-      <c r="B3" t="s">
-        <v>361</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" t="s">
         <v>353</v>
       </c>
-      <c r="D4" t="s">
-        <v>354</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -5567,10 +5596,10 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -5578,70 +5607,70 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>371</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" t="s">
         <v>368</v>
-      </c>
-      <c r="C13" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5758,7 +5787,7 @@
         <v>171</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>173</v>
@@ -5766,7 +5795,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5803,7 +5832,7 @@
         <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>169</v>
@@ -5842,7 +5871,7 @@
         <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -5859,24 +5888,24 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
         <v>273</v>
       </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -5886,7 +5915,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -5935,10 +5964,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" t="s">
         <v>280</v>
-      </c>
-      <c r="C20" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +5999,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6008,16 +6037,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
         <v>377</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>378</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>379</v>
-      </c>
-      <c r="D1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6025,10 +6054,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -6091,12 +6120,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -6185,12 +6214,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -6198,7 +6227,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3">
         <v>30</v>
@@ -6251,16 +6280,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
+    <col min="2" max="2" width="42.296875" customWidth="1"/>
     <col min="3" max="3" width="61.8984375" customWidth="1"/>
     <col min="4" max="4" width="53.8984375" customWidth="1"/>
     <col min="5" max="5" width="40.69921875" bestFit="1" customWidth="1"/>
@@ -6274,102 +6303,110 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E8" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
+      <c r="C12" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D12" t="s">
         <v>339</v>
-      </c>
-      <c r="D10" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D8" location="ダメージ計算!A1" display="ダメージ計算は'ダメージ計算'参照"/>
-    <hyperlink ref="D7" location="パートナーAI!A1" display="会話内容の詳細は'パートナーAI'参照"/>
-    <hyperlink ref="E6" location="装備品カスタマイズ!A1" display="強化、融合、祝福は'装備品カスタマイズ'参照"/>
-    <hyperlink ref="D9" location="プレイアブルキャラクターテーブル!A1" display="プレイアブルキャラクターのラインナップは'プレイアブルキャラクターテーブル'参照"/>
-    <hyperlink ref="E5" location="ダンジョン詳細!A1" display="詳しい仕様は'ダンジョン詳細'参照"/>
+    <hyperlink ref="D10" location="ダメージ計算!A1" display="ダメージ計算は'ダメージ計算'参照"/>
+    <hyperlink ref="D9" location="パートナーAI!A1" display="会話内容の詳細は'パートナーAI'参照"/>
+    <hyperlink ref="E8" location="装備品カスタマイズ!A1" display="強化、融合、祝福は'装備品カスタマイズ'参照"/>
+    <hyperlink ref="D11" location="プレイアブルキャラクターテーブル!A1" display="プレイアブルキャラクターのラインナップは'プレイアブルキャラクターテーブル'参照"/>
+    <hyperlink ref="E7" location="ダンジョン詳細!A1" display="詳しい仕様は'ダンジョン詳細'参照"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6533,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -6676,17 +6713,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4">
         <v>38</v>
@@ -6694,7 +6731,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5">
         <v>58</v>
@@ -6702,7 +6739,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6739,10 +6776,10 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6755,135 +6792,135 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" t="s">
         <v>416</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>417</v>
-      </c>
-      <c r="D5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E5" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" t="s">
         <v>439</v>
-      </c>
-      <c r="B16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" t="s">
-        <v>440</v>
-      </c>
-      <c r="D16" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -6891,445 +6928,445 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C27" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>426</v>
-      </c>
-      <c r="B82" t="s">
-        <v>407</v>
-      </c>
-      <c r="C82" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>424</v>
+      </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C83" t="s">
-        <v>344</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>406</v>
+        <v>408</v>
+      </c>
+      <c r="C84" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>426</v>
+      </c>
+      <c r="B94" t="s">
+        <v>427</v>
+      </c>
+      <c r="C94" t="s">
         <v>428</v>
       </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B95" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
         <v>429</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B94" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B102" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B106" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+      <c r="B114" t="s">
+        <v>406</v>
+      </c>
+      <c r="C114" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B110" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+      <c r="D114" t="s">
         <v>434</v>
       </c>
-      <c r="B113" t="s">
-        <v>407</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="E114" t="s">
         <v>435</v>
-      </c>
-      <c r="D113" t="s">
-        <v>436</v>
-      </c>
-      <c r="E113" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
-        <v>409</v>
-      </c>
-      <c r="C114" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
-        <v>406</v>
+        <v>408</v>
+      </c>
+      <c r="C115" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>442</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B122" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B125" t="s">
-        <v>344</v>
+      <c r="A125" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B126" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -7341,12 +7378,253 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7406,38 +7684,38 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -7484,37 +7762,37 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
         <v>325</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
         <v>322</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
         <v>319</v>
-      </c>
-      <c r="B5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7569,70 +7847,70 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="19" spans="1:14" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7691,12 +7969,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7714,19 +7992,19 @@
         <v>187</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -7734,7 +8012,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -7755,15 +8033,15 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7830,7 +8108,7 @@
         <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -7845,10 +8123,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
         <v>238</v>
-      </c>
-      <c r="C8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -7869,13 +8147,13 @@
     </row>
     <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -7933,7 +8211,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>80</v>
@@ -7941,10 +8219,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -7976,68 +8254,68 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" t="s">
         <v>256</v>
       </c>
-      <c r="B30" t="s">
-        <v>257</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" t="s">
         <v>258</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" t="s">
         <v>261</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -8254,7 +8532,7 @@
         <v>209</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -8263,13 +8541,13 @@
         <v>117</v>
       </c>
       <c r="B26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -8277,13 +8555,13 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -8291,10 +8569,10 @@
         <v>204</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="1"/>
     </row>
@@ -8303,10 +8581,10 @@
         <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -8383,7 +8661,7 @@
         <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>210</v>
@@ -8411,7 +8689,7 @@
         <v>211</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
